--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业单位数.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,2735 +638,2735 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6410</v>
+        <v>6097</v>
       </c>
       <c r="C2" t="n">
-        <v>6802</v>
+        <v>6421</v>
       </c>
       <c r="D2" t="n">
-        <v>1856</v>
+        <v>1726</v>
       </c>
       <c r="E2" t="n">
-        <v>3954</v>
+        <v>3679</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>11579</v>
+        <v>10884</v>
       </c>
       <c r="H2" t="n">
-        <v>867</v>
+        <v>836</v>
       </c>
       <c r="I2" t="n">
-        <v>3357</v>
+        <v>3169</v>
       </c>
       <c r="J2" t="n">
-        <v>3572</v>
+        <v>3339</v>
       </c>
       <c r="K2" t="n">
-        <v>6581</v>
+        <v>6119</v>
       </c>
       <c r="L2" t="n">
-        <v>1567</v>
+        <v>1415</v>
       </c>
       <c r="M2" t="n">
-        <v>165724</v>
+        <v>155420</v>
       </c>
       <c r="N2" t="n">
-        <v>1998</v>
+        <v>1852</v>
       </c>
       <c r="O2" t="n">
-        <v>9556</v>
+        <v>9089</v>
       </c>
       <c r="P2" t="n">
-        <v>2638</v>
+        <v>2455</v>
       </c>
       <c r="Q2" t="n">
-        <v>1347</v>
+        <v>1284</v>
       </c>
       <c r="R2" t="n">
-        <v>7729</v>
+        <v>7033</v>
       </c>
       <c r="S2" t="n">
-        <v>2725</v>
+        <v>2481</v>
       </c>
       <c r="T2" t="n">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="U2" t="n">
-        <v>1833</v>
+        <v>1727</v>
       </c>
       <c r="V2" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="W2" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="X2" t="n">
-        <v>2579</v>
+        <v>2469</v>
       </c>
       <c r="Y2" t="n">
-        <v>4540</v>
+        <v>4301</v>
       </c>
       <c r="Z2" t="n">
-        <v>4548</v>
+        <v>4230</v>
       </c>
       <c r="AA2" t="n">
-        <v>8166</v>
+        <v>7628</v>
       </c>
       <c r="AB2" t="n">
-        <v>3317</v>
+        <v>3091</v>
       </c>
       <c r="AC2" t="n">
-        <v>982</v>
+        <v>941</v>
       </c>
       <c r="AD2" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AE2" t="n">
-        <v>11664</v>
+        <v>10975</v>
       </c>
       <c r="AF2" t="n">
-        <v>2407</v>
+        <v>2357</v>
       </c>
       <c r="AG2" t="n">
-        <v>4877</v>
+        <v>4570</v>
       </c>
       <c r="AH2" t="n">
-        <v>8771</v>
+        <v>8087</v>
       </c>
       <c r="AI2" t="n">
-        <v>14508</v>
+        <v>13627</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1732</v>
+        <v>1630</v>
       </c>
       <c r="AK2" t="n">
-        <v>4579</v>
+        <v>4303</v>
       </c>
       <c r="AL2" t="n">
-        <v>10379</v>
+        <v>9864</v>
       </c>
       <c r="AM2" t="n">
-        <v>3350</v>
+        <v>3107</v>
       </c>
       <c r="AN2" t="n">
-        <v>3072</v>
+        <v>2837</v>
       </c>
       <c r="AO2" t="n">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6398</v>
+        <v>6245</v>
       </c>
       <c r="C3" t="n">
-        <v>6811</v>
+        <v>6571</v>
       </c>
       <c r="D3" t="n">
-        <v>1858</v>
+        <v>1783</v>
       </c>
       <c r="E3" t="n">
-        <v>3978</v>
+        <v>3781</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>11585</v>
+        <v>11156</v>
       </c>
       <c r="H3" t="n">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="I3" t="n">
-        <v>3370</v>
+        <v>3231</v>
       </c>
       <c r="J3" t="n">
-        <v>3565</v>
+        <v>3429</v>
       </c>
       <c r="K3" t="n">
-        <v>6606</v>
+        <v>6340</v>
       </c>
       <c r="L3" t="n">
-        <v>1572</v>
+        <v>1481</v>
       </c>
       <c r="M3" t="n">
-        <v>166033</v>
+        <v>159680</v>
       </c>
       <c r="N3" t="n">
-        <v>2003</v>
+        <v>1935</v>
       </c>
       <c r="O3" t="n">
-        <v>9574</v>
+        <v>9339</v>
       </c>
       <c r="P3" t="n">
-        <v>2661</v>
+        <v>2546</v>
       </c>
       <c r="Q3" t="n">
-        <v>1361</v>
+        <v>1302</v>
       </c>
       <c r="R3" t="n">
-        <v>7758</v>
+        <v>7368</v>
       </c>
       <c r="S3" t="n">
-        <v>2726</v>
+        <v>2546</v>
       </c>
       <c r="T3" t="n">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="U3" t="n">
-        <v>1835</v>
+        <v>1778</v>
       </c>
       <c r="V3" t="n">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W3" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="X3" t="n">
-        <v>2571</v>
+        <v>2522</v>
       </c>
       <c r="Y3" t="n">
-        <v>4541</v>
+        <v>4362</v>
       </c>
       <c r="Z3" t="n">
-        <v>4577</v>
+        <v>4364</v>
       </c>
       <c r="AA3" t="n">
-        <v>8185</v>
+        <v>7890</v>
       </c>
       <c r="AB3" t="n">
-        <v>3327</v>
+        <v>3188</v>
       </c>
       <c r="AC3" t="n">
-        <v>984</v>
+        <v>956</v>
       </c>
       <c r="AD3" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AE3" t="n">
-        <v>11677</v>
+        <v>11274</v>
       </c>
       <c r="AF3" t="n">
-        <v>2405</v>
+        <v>2381</v>
       </c>
       <c r="AG3" t="n">
-        <v>4884</v>
+        <v>4690</v>
       </c>
       <c r="AH3" t="n">
-        <v>8797</v>
+        <v>8404</v>
       </c>
       <c r="AI3" t="n">
-        <v>14534</v>
+        <v>13961</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1733</v>
+        <v>1658</v>
       </c>
       <c r="AK3" t="n">
-        <v>4585</v>
+        <v>4397</v>
       </c>
       <c r="AL3" t="n">
-        <v>10365</v>
+        <v>10062</v>
       </c>
       <c r="AM3" t="n">
-        <v>3347</v>
+        <v>3166</v>
       </c>
       <c r="AN3" t="n">
-        <v>3102</v>
+        <v>2889</v>
       </c>
       <c r="AO3" t="n">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6432</v>
+        <v>6256</v>
       </c>
       <c r="C4" t="n">
-        <v>6993</v>
+        <v>6608</v>
       </c>
       <c r="D4" t="n">
-        <v>1883</v>
+        <v>1778</v>
       </c>
       <c r="E4" t="n">
-        <v>4091</v>
+        <v>3829</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>11712</v>
+        <v>11202</v>
       </c>
       <c r="H4" t="n">
-        <v>895</v>
+        <v>850</v>
       </c>
       <c r="I4" t="n">
-        <v>3398</v>
+        <v>3254</v>
       </c>
       <c r="J4" t="n">
-        <v>3632</v>
+        <v>3456</v>
       </c>
       <c r="K4" t="n">
-        <v>6724</v>
+        <v>6362</v>
       </c>
       <c r="L4" t="n">
-        <v>1603</v>
+        <v>1496</v>
       </c>
       <c r="M4" t="n">
-        <v>168799</v>
+        <v>160464</v>
       </c>
       <c r="N4" t="n">
-        <v>2032</v>
+        <v>1938</v>
       </c>
       <c r="O4" t="n">
-        <v>9827</v>
+        <v>9336</v>
       </c>
       <c r="P4" t="n">
-        <v>2730</v>
+        <v>2546</v>
       </c>
       <c r="Q4" t="n">
-        <v>1381</v>
+        <v>1309</v>
       </c>
       <c r="R4" t="n">
-        <v>7997</v>
+        <v>7436</v>
       </c>
       <c r="S4" t="n">
-        <v>2784</v>
+        <v>2574</v>
       </c>
       <c r="T4" t="n">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="U4" t="n">
-        <v>1747</v>
+        <v>1786</v>
       </c>
       <c r="V4" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W4" t="n">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="X4" t="n">
-        <v>2593</v>
+        <v>2536</v>
       </c>
       <c r="Y4" t="n">
-        <v>4589</v>
+        <v>4444</v>
       </c>
       <c r="Z4" t="n">
-        <v>4659</v>
+        <v>4406</v>
       </c>
       <c r="AA4" t="n">
-        <v>8415</v>
+        <v>7910</v>
       </c>
       <c r="AB4" t="n">
-        <v>3514</v>
+        <v>3193</v>
       </c>
       <c r="AC4" t="n">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="AD4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="n">
-        <v>11982</v>
+        <v>11339</v>
       </c>
       <c r="AF4" t="n">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="AG4" t="n">
-        <v>4963</v>
+        <v>4708</v>
       </c>
       <c r="AH4" t="n">
-        <v>8966</v>
+        <v>8431</v>
       </c>
       <c r="AI4" t="n">
-        <v>14652</v>
+        <v>14033</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1750</v>
+        <v>1670</v>
       </c>
       <c r="AK4" t="n">
-        <v>4595</v>
+        <v>4418</v>
       </c>
       <c r="AL4" t="n">
-        <v>10460</v>
+        <v>10072</v>
       </c>
       <c r="AM4" t="n">
-        <v>3364</v>
+        <v>3195</v>
       </c>
       <c r="AN4" t="n">
-        <v>3155</v>
+        <v>2904</v>
       </c>
       <c r="AO4" t="n">
-        <v>606</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6097</v>
+        <v>6290</v>
       </c>
       <c r="C5" t="n">
-        <v>6421</v>
+        <v>6645</v>
       </c>
       <c r="D5" t="n">
-        <v>1726</v>
+        <v>1790</v>
       </c>
       <c r="E5" t="n">
-        <v>3679</v>
+        <v>3842</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>10884</v>
+        <v>11253</v>
       </c>
       <c r="H5" t="n">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="I5" t="n">
-        <v>3169</v>
+        <v>3264</v>
       </c>
       <c r="J5" t="n">
-        <v>3339</v>
+        <v>3461</v>
       </c>
       <c r="K5" t="n">
-        <v>6119</v>
+        <v>6366</v>
       </c>
       <c r="L5" t="n">
-        <v>1415</v>
+        <v>1498</v>
       </c>
       <c r="M5" t="n">
-        <v>155420</v>
+        <v>161206</v>
       </c>
       <c r="N5" t="n">
-        <v>1852</v>
+        <v>1951</v>
       </c>
       <c r="O5" t="n">
-        <v>9089</v>
+        <v>9384</v>
       </c>
       <c r="P5" t="n">
-        <v>2455</v>
+        <v>2536</v>
       </c>
       <c r="Q5" t="n">
-        <v>1284</v>
+        <v>1312</v>
       </c>
       <c r="R5" t="n">
-        <v>7033</v>
+        <v>7478</v>
       </c>
       <c r="S5" t="n">
-        <v>2481</v>
+        <v>2598</v>
       </c>
       <c r="T5" t="n">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="U5" t="n">
-        <v>1727</v>
+        <v>1804</v>
       </c>
       <c r="V5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W5" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="X5" t="n">
-        <v>2469</v>
+        <v>2550</v>
       </c>
       <c r="Y5" t="n">
-        <v>4301</v>
+        <v>4470</v>
       </c>
       <c r="Z5" t="n">
-        <v>4230</v>
+        <v>4425</v>
       </c>
       <c r="AA5" t="n">
-        <v>7628</v>
+        <v>7959</v>
       </c>
       <c r="AB5" t="n">
-        <v>3091</v>
+        <v>3222</v>
       </c>
       <c r="AC5" t="n">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="AD5" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE5" t="n">
-        <v>10975</v>
+        <v>11413</v>
       </c>
       <c r="AF5" t="n">
-        <v>2357</v>
+        <v>2392</v>
       </c>
       <c r="AG5" t="n">
-        <v>4570</v>
+        <v>4734</v>
       </c>
       <c r="AH5" t="n">
-        <v>8087</v>
+        <v>8450</v>
       </c>
       <c r="AI5" t="n">
-        <v>13627</v>
+        <v>14069</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1630</v>
+        <v>1676</v>
       </c>
       <c r="AK5" t="n">
-        <v>4303</v>
+        <v>4448</v>
       </c>
       <c r="AL5" t="n">
-        <v>9864</v>
+        <v>10120</v>
       </c>
       <c r="AM5" t="n">
-        <v>3107</v>
+        <v>3226</v>
       </c>
       <c r="AN5" t="n">
-        <v>2837</v>
+        <v>2924</v>
       </c>
       <c r="AO5" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6245</v>
+        <v>6329</v>
       </c>
       <c r="C6" t="n">
-        <v>6571</v>
+        <v>6724</v>
       </c>
       <c r="D6" t="n">
-        <v>1783</v>
+        <v>1807</v>
       </c>
       <c r="E6" t="n">
-        <v>3781</v>
+        <v>3866</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>11156</v>
+        <v>11367</v>
       </c>
       <c r="H6" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I6" t="n">
-        <v>3231</v>
+        <v>3295</v>
       </c>
       <c r="J6" t="n">
-        <v>3429</v>
+        <v>3506</v>
       </c>
       <c r="K6" t="n">
-        <v>6340</v>
+        <v>6443</v>
       </c>
       <c r="L6" t="n">
-        <v>1481</v>
+        <v>1523</v>
       </c>
       <c r="M6" t="n">
-        <v>159680</v>
+        <v>162752</v>
       </c>
       <c r="N6" t="n">
-        <v>1935</v>
+        <v>1964</v>
       </c>
       <c r="O6" t="n">
-        <v>9339</v>
+        <v>9441</v>
       </c>
       <c r="P6" t="n">
-        <v>2546</v>
+        <v>2597</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302</v>
+        <v>1328</v>
       </c>
       <c r="R6" t="n">
-        <v>7368</v>
+        <v>7550</v>
       </c>
       <c r="S6" t="n">
-        <v>2546</v>
+        <v>2649</v>
       </c>
       <c r="T6" t="n">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="U6" t="n">
-        <v>1778</v>
+        <v>1812</v>
       </c>
       <c r="V6" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W6" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="X6" t="n">
-        <v>2522</v>
+        <v>2560</v>
       </c>
       <c r="Y6" t="n">
-        <v>4362</v>
+        <v>4489</v>
       </c>
       <c r="Z6" t="n">
-        <v>4364</v>
+        <v>4457</v>
       </c>
       <c r="AA6" t="n">
-        <v>7890</v>
+        <v>8011</v>
       </c>
       <c r="AB6" t="n">
-        <v>3188</v>
+        <v>3260</v>
       </c>
       <c r="AC6" t="n">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="AD6" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AE6" t="n">
-        <v>11274</v>
+        <v>11515</v>
       </c>
       <c r="AF6" t="n">
-        <v>2381</v>
+        <v>2401</v>
       </c>
       <c r="AG6" t="n">
-        <v>4690</v>
+        <v>4789</v>
       </c>
       <c r="AH6" t="n">
-        <v>8404</v>
+        <v>8562</v>
       </c>
       <c r="AI6" t="n">
-        <v>13961</v>
+        <v>14213</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1658</v>
+        <v>1693</v>
       </c>
       <c r="AK6" t="n">
-        <v>4397</v>
+        <v>4487</v>
       </c>
       <c r="AL6" t="n">
-        <v>10062</v>
+        <v>10213</v>
       </c>
       <c r="AM6" t="n">
-        <v>3166</v>
+        <v>3271</v>
       </c>
       <c r="AN6" t="n">
-        <v>2889</v>
+        <v>2953</v>
       </c>
       <c r="AO6" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6256</v>
+        <v>6341</v>
       </c>
       <c r="C7" t="n">
-        <v>6608</v>
+        <v>6750</v>
       </c>
       <c r="D7" t="n">
-        <v>1778</v>
+        <v>1818</v>
       </c>
       <c r="E7" t="n">
-        <v>3829</v>
+        <v>3888</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>11202</v>
+        <v>11419</v>
       </c>
       <c r="H7" t="n">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="I7" t="n">
-        <v>3254</v>
+        <v>3307</v>
       </c>
       <c r="J7" t="n">
-        <v>3456</v>
+        <v>3526</v>
       </c>
       <c r="K7" t="n">
-        <v>6362</v>
+        <v>6477</v>
       </c>
       <c r="L7" t="n">
-        <v>1496</v>
+        <v>1539</v>
       </c>
       <c r="M7" t="n">
-        <v>160464</v>
+        <v>163687</v>
       </c>
       <c r="N7" t="n">
-        <v>1938</v>
+        <v>1978</v>
       </c>
       <c r="O7" t="n">
-        <v>9336</v>
+        <v>9465</v>
       </c>
       <c r="P7" t="n">
-        <v>2546</v>
+        <v>2606</v>
       </c>
       <c r="Q7" t="n">
-        <v>1309</v>
+        <v>1334</v>
       </c>
       <c r="R7" t="n">
-        <v>7436</v>
+        <v>7587</v>
       </c>
       <c r="S7" t="n">
-        <v>2574</v>
+        <v>2680</v>
       </c>
       <c r="T7" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="U7" t="n">
-        <v>1786</v>
+        <v>1820</v>
       </c>
       <c r="V7" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="W7" t="n">
         <v>298</v>
       </c>
       <c r="X7" t="n">
-        <v>2536</v>
+        <v>2572</v>
       </c>
       <c r="Y7" t="n">
-        <v>4444</v>
+        <v>4523</v>
       </c>
       <c r="Z7" t="n">
-        <v>4406</v>
+        <v>4467</v>
       </c>
       <c r="AA7" t="n">
-        <v>7910</v>
+        <v>8058</v>
       </c>
       <c r="AB7" t="n">
-        <v>3193</v>
+        <v>3265</v>
       </c>
       <c r="AC7" t="n">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="AD7" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE7" t="n">
-        <v>11339</v>
+        <v>11571</v>
       </c>
       <c r="AF7" t="n">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="AG7" t="n">
-        <v>4708</v>
+        <v>4823</v>
       </c>
       <c r="AH7" t="n">
-        <v>8431</v>
+        <v>8637</v>
       </c>
       <c r="AI7" t="n">
-        <v>14033</v>
+        <v>14351</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1670</v>
+        <v>1726</v>
       </c>
       <c r="AK7" t="n">
-        <v>4418</v>
+        <v>4522</v>
       </c>
       <c r="AL7" t="n">
-        <v>10072</v>
+        <v>10284</v>
       </c>
       <c r="AM7" t="n">
-        <v>3195</v>
+        <v>3297</v>
       </c>
       <c r="AN7" t="n">
-        <v>2904</v>
+        <v>2971</v>
       </c>
       <c r="AO7" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6290</v>
+        <v>6360</v>
       </c>
       <c r="C8" t="n">
-        <v>6645</v>
+        <v>6759</v>
       </c>
       <c r="D8" t="n">
-        <v>1790</v>
+        <v>1826</v>
       </c>
       <c r="E8" t="n">
-        <v>3842</v>
+        <v>3908</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>11253</v>
+        <v>11472</v>
       </c>
       <c r="H8" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="I8" t="n">
-        <v>3264</v>
+        <v>3319</v>
       </c>
       <c r="J8" t="n">
-        <v>3461</v>
+        <v>3542</v>
       </c>
       <c r="K8" t="n">
-        <v>6366</v>
+        <v>6504</v>
       </c>
       <c r="L8" t="n">
-        <v>1498</v>
+        <v>1549</v>
       </c>
       <c r="M8" t="n">
-        <v>161206</v>
+        <v>164260</v>
       </c>
       <c r="N8" t="n">
-        <v>1951</v>
+        <v>1985</v>
       </c>
       <c r="O8" t="n">
-        <v>9384</v>
+        <v>9490</v>
       </c>
       <c r="P8" t="n">
-        <v>2536</v>
+        <v>2613</v>
       </c>
       <c r="Q8" t="n">
-        <v>1312</v>
+        <v>1356</v>
       </c>
       <c r="R8" t="n">
-        <v>7478</v>
+        <v>7654</v>
       </c>
       <c r="S8" t="n">
-        <v>2598</v>
+        <v>2684</v>
       </c>
       <c r="T8" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="U8" t="n">
-        <v>1804</v>
+        <v>1826</v>
       </c>
       <c r="V8" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W8" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="X8" t="n">
-        <v>2550</v>
+        <v>2565</v>
       </c>
       <c r="Y8" t="n">
-        <v>4470</v>
+        <v>4527</v>
       </c>
       <c r="Z8" t="n">
-        <v>4425</v>
+        <v>4493</v>
       </c>
       <c r="AA8" t="n">
-        <v>7959</v>
+        <v>8092</v>
       </c>
       <c r="AB8" t="n">
-        <v>3222</v>
+        <v>3277</v>
       </c>
       <c r="AC8" t="n">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="AD8" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AE8" t="n">
-        <v>11413</v>
+        <v>11585</v>
       </c>
       <c r="AF8" t="n">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="AG8" t="n">
-        <v>4734</v>
+        <v>4834</v>
       </c>
       <c r="AH8" t="n">
-        <v>8450</v>
+        <v>8669</v>
       </c>
       <c r="AI8" t="n">
-        <v>14069</v>
+        <v>14408</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1676</v>
+        <v>1719</v>
       </c>
       <c r="AK8" t="n">
-        <v>4448</v>
+        <v>4545</v>
       </c>
       <c r="AL8" t="n">
-        <v>10120</v>
+        <v>10296</v>
       </c>
       <c r="AM8" t="n">
-        <v>3226</v>
+        <v>3310</v>
       </c>
       <c r="AN8" t="n">
-        <v>2924</v>
+        <v>2987</v>
       </c>
       <c r="AO8" t="n">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6329</v>
+        <v>6379</v>
       </c>
       <c r="C9" t="n">
-        <v>6724</v>
+        <v>6767</v>
       </c>
       <c r="D9" t="n">
-        <v>1807</v>
+        <v>1831</v>
       </c>
       <c r="E9" t="n">
-        <v>3866</v>
+        <v>3921</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>11367</v>
+        <v>11510</v>
       </c>
       <c r="H9" t="n">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="I9" t="n">
-        <v>3295</v>
+        <v>3330</v>
       </c>
       <c r="J9" t="n">
-        <v>3506</v>
+        <v>3545</v>
       </c>
       <c r="K9" t="n">
-        <v>6443</v>
+        <v>6533</v>
       </c>
       <c r="L9" t="n">
-        <v>1523</v>
+        <v>1551</v>
       </c>
       <c r="M9" t="n">
-        <v>162752</v>
+        <v>164774</v>
       </c>
       <c r="N9" t="n">
-        <v>1964</v>
+        <v>1987</v>
       </c>
       <c r="O9" t="n">
-        <v>9441</v>
+        <v>9508</v>
       </c>
       <c r="P9" t="n">
-        <v>2597</v>
+        <v>2627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1328</v>
+        <v>1362</v>
       </c>
       <c r="R9" t="n">
-        <v>7550</v>
+        <v>7678</v>
       </c>
       <c r="S9" t="n">
-        <v>2649</v>
+        <v>2698</v>
       </c>
       <c r="T9" t="n">
         <v>434</v>
       </c>
       <c r="U9" t="n">
-        <v>1812</v>
+        <v>1827</v>
       </c>
       <c r="V9" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="W9" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X9" t="n">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="Y9" t="n">
-        <v>4489</v>
+        <v>4534</v>
       </c>
       <c r="Z9" t="n">
-        <v>4457</v>
+        <v>4515</v>
       </c>
       <c r="AA9" t="n">
-        <v>8011</v>
+        <v>8122</v>
       </c>
       <c r="AB9" t="n">
-        <v>3260</v>
+        <v>3295</v>
       </c>
       <c r="AC9" t="n">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="AD9" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AE9" t="n">
-        <v>11515</v>
+        <v>11610</v>
       </c>
       <c r="AF9" t="n">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="AG9" t="n">
-        <v>4789</v>
+        <v>4850</v>
       </c>
       <c r="AH9" t="n">
-        <v>8562</v>
+        <v>8706</v>
       </c>
       <c r="AI9" t="n">
-        <v>14213</v>
+        <v>14449</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1693</v>
+        <v>1721</v>
       </c>
       <c r="AK9" t="n">
-        <v>4487</v>
+        <v>4559</v>
       </c>
       <c r="AL9" t="n">
-        <v>10213</v>
+        <v>10329</v>
       </c>
       <c r="AM9" t="n">
-        <v>3271</v>
+        <v>3320</v>
       </c>
       <c r="AN9" t="n">
-        <v>2953</v>
+        <v>3023</v>
       </c>
       <c r="AO9" t="n">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6341</v>
+        <v>6410</v>
       </c>
       <c r="C10" t="n">
-        <v>6750</v>
+        <v>6802</v>
       </c>
       <c r="D10" t="n">
-        <v>1818</v>
+        <v>1856</v>
       </c>
       <c r="E10" t="n">
-        <v>3888</v>
+        <v>3954</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>11419</v>
+        <v>11579</v>
       </c>
       <c r="H10" t="n">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="I10" t="n">
-        <v>3307</v>
+        <v>3357</v>
       </c>
       <c r="J10" t="n">
-        <v>3526</v>
+        <v>3572</v>
       </c>
       <c r="K10" t="n">
-        <v>6477</v>
+        <v>6581</v>
       </c>
       <c r="L10" t="n">
-        <v>1539</v>
+        <v>1567</v>
       </c>
       <c r="M10" t="n">
-        <v>163687</v>
+        <v>165724</v>
       </c>
       <c r="N10" t="n">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="O10" t="n">
-        <v>9465</v>
+        <v>9556</v>
       </c>
       <c r="P10" t="n">
-        <v>2606</v>
+        <v>2638</v>
       </c>
       <c r="Q10" t="n">
-        <v>1334</v>
+        <v>1347</v>
       </c>
       <c r="R10" t="n">
-        <v>7587</v>
+        <v>7729</v>
       </c>
       <c r="S10" t="n">
-        <v>2680</v>
+        <v>2725</v>
       </c>
       <c r="T10" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="U10" t="n">
-        <v>1820</v>
+        <v>1833</v>
       </c>
       <c r="V10" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="W10" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X10" t="n">
-        <v>2572</v>
+        <v>2579</v>
       </c>
       <c r="Y10" t="n">
-        <v>4523</v>
+        <v>4540</v>
       </c>
       <c r="Z10" t="n">
-        <v>4467</v>
+        <v>4548</v>
       </c>
       <c r="AA10" t="n">
-        <v>8058</v>
+        <v>8166</v>
       </c>
       <c r="AB10" t="n">
-        <v>3265</v>
+        <v>3317</v>
       </c>
       <c r="AC10" t="n">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="AD10" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AE10" t="n">
-        <v>11571</v>
+        <v>11664</v>
       </c>
       <c r="AF10" t="n">
-        <v>2395</v>
+        <v>2407</v>
       </c>
       <c r="AG10" t="n">
-        <v>4823</v>
+        <v>4877</v>
       </c>
       <c r="AH10" t="n">
-        <v>8637</v>
+        <v>8771</v>
       </c>
       <c r="AI10" t="n">
-        <v>14351</v>
+        <v>14508</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="AK10" t="n">
-        <v>4522</v>
+        <v>4579</v>
       </c>
       <c r="AL10" t="n">
-        <v>10284</v>
+        <v>10379</v>
       </c>
       <c r="AM10" t="n">
-        <v>3297</v>
+        <v>3350</v>
       </c>
       <c r="AN10" t="n">
-        <v>2971</v>
+        <v>3072</v>
       </c>
       <c r="AO10" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6360</v>
+        <v>6398</v>
       </c>
       <c r="C11" t="n">
-        <v>6759</v>
+        <v>6811</v>
       </c>
       <c r="D11" t="n">
-        <v>1826</v>
+        <v>1858</v>
       </c>
       <c r="E11" t="n">
-        <v>3908</v>
+        <v>3978</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>11472</v>
+        <v>11585</v>
       </c>
       <c r="H11" t="n">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="I11" t="n">
-        <v>3319</v>
+        <v>3370</v>
       </c>
       <c r="J11" t="n">
-        <v>3542</v>
+        <v>3565</v>
       </c>
       <c r="K11" t="n">
-        <v>6504</v>
+        <v>6606</v>
       </c>
       <c r="L11" t="n">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="M11" t="n">
-        <v>164260</v>
+        <v>166033</v>
       </c>
       <c r="N11" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="O11" t="n">
-        <v>9490</v>
+        <v>9574</v>
       </c>
       <c r="P11" t="n">
-        <v>2613</v>
+        <v>2661</v>
       </c>
       <c r="Q11" t="n">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="R11" t="n">
-        <v>7654</v>
+        <v>7758</v>
       </c>
       <c r="S11" t="n">
-        <v>2684</v>
+        <v>2726</v>
       </c>
       <c r="T11" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="U11" t="n">
-        <v>1826</v>
+        <v>1835</v>
       </c>
       <c r="V11" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W11" t="n">
         <v>301</v>
       </c>
       <c r="X11" t="n">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="Y11" t="n">
-        <v>4527</v>
+        <v>4541</v>
       </c>
       <c r="Z11" t="n">
-        <v>4493</v>
+        <v>4577</v>
       </c>
       <c r="AA11" t="n">
-        <v>8092</v>
+        <v>8185</v>
       </c>
       <c r="AB11" t="n">
-        <v>3277</v>
+        <v>3327</v>
       </c>
       <c r="AC11" t="n">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="AD11" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AE11" t="n">
-        <v>11585</v>
+        <v>11677</v>
       </c>
       <c r="AF11" t="n">
-        <v>2400</v>
+        <v>2405</v>
       </c>
       <c r="AG11" t="n">
-        <v>4834</v>
+        <v>4884</v>
       </c>
       <c r="AH11" t="n">
-        <v>8669</v>
+        <v>8797</v>
       </c>
       <c r="AI11" t="n">
-        <v>14408</v>
+        <v>14534</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="AK11" t="n">
-        <v>4545</v>
+        <v>4585</v>
       </c>
       <c r="AL11" t="n">
-        <v>10296</v>
+        <v>10365</v>
       </c>
       <c r="AM11" t="n">
-        <v>3310</v>
+        <v>3347</v>
       </c>
       <c r="AN11" t="n">
-        <v>2987</v>
+        <v>3102</v>
       </c>
       <c r="AO11" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6379</v>
+        <v>6432</v>
       </c>
       <c r="C12" t="n">
-        <v>6767</v>
+        <v>6993</v>
       </c>
       <c r="D12" t="n">
-        <v>1831</v>
+        <v>1883</v>
       </c>
       <c r="E12" t="n">
-        <v>3921</v>
+        <v>4091</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>11510</v>
+        <v>11712</v>
       </c>
       <c r="H12" t="n">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="I12" t="n">
-        <v>3330</v>
+        <v>3398</v>
       </c>
       <c r="J12" t="n">
-        <v>3545</v>
+        <v>3632</v>
       </c>
       <c r="K12" t="n">
-        <v>6533</v>
+        <v>6724</v>
       </c>
       <c r="L12" t="n">
-        <v>1551</v>
+        <v>1603</v>
       </c>
       <c r="M12" t="n">
-        <v>164774</v>
+        <v>168799</v>
       </c>
       <c r="N12" t="n">
-        <v>1987</v>
+        <v>2032</v>
       </c>
       <c r="O12" t="n">
-        <v>9508</v>
+        <v>9827</v>
       </c>
       <c r="P12" t="n">
-        <v>2627</v>
+        <v>2730</v>
       </c>
       <c r="Q12" t="n">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="R12" t="n">
-        <v>7678</v>
+        <v>7997</v>
       </c>
       <c r="S12" t="n">
-        <v>2698</v>
+        <v>2784</v>
       </c>
       <c r="T12" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U12" t="n">
-        <v>1827</v>
+        <v>1747</v>
       </c>
       <c r="V12" t="n">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="W12" t="n">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="X12" t="n">
-        <v>2566</v>
+        <v>2593</v>
       </c>
       <c r="Y12" t="n">
-        <v>4534</v>
+        <v>4589</v>
       </c>
       <c r="Z12" t="n">
-        <v>4515</v>
+        <v>4659</v>
       </c>
       <c r="AA12" t="n">
-        <v>8122</v>
+        <v>8415</v>
       </c>
       <c r="AB12" t="n">
-        <v>3295</v>
+        <v>3514</v>
       </c>
       <c r="AC12" t="n">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="AD12" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AE12" t="n">
-        <v>11610</v>
+        <v>11982</v>
       </c>
       <c r="AF12" t="n">
-        <v>2405</v>
+        <v>2395</v>
       </c>
       <c r="AG12" t="n">
-        <v>4850</v>
+        <v>4963</v>
       </c>
       <c r="AH12" t="n">
-        <v>8706</v>
+        <v>8966</v>
       </c>
       <c r="AI12" t="n">
-        <v>14449</v>
+        <v>14652</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1721</v>
+        <v>1750</v>
       </c>
       <c r="AK12" t="n">
-        <v>4559</v>
+        <v>4595</v>
       </c>
       <c r="AL12" t="n">
-        <v>10329</v>
+        <v>10460</v>
       </c>
       <c r="AM12" t="n">
-        <v>3320</v>
+        <v>3364</v>
       </c>
       <c r="AN12" t="n">
-        <v>3023</v>
+        <v>3155</v>
       </c>
       <c r="AO12" t="n">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6450</v>
+        <v>6201</v>
       </c>
       <c r="C13" t="n">
-        <v>7218</v>
+        <v>6813</v>
       </c>
       <c r="D13" t="n">
-        <v>2031</v>
+        <v>1889</v>
       </c>
       <c r="E13" t="n">
-        <v>4402</v>
+        <v>4118</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>12221</v>
+        <v>11627</v>
       </c>
       <c r="H13" t="n">
-        <v>914</v>
+        <v>885</v>
       </c>
       <c r="I13" t="n">
-        <v>3552</v>
+        <v>3403</v>
       </c>
       <c r="J13" t="n">
-        <v>3629</v>
+        <v>3469</v>
       </c>
       <c r="K13" t="n">
-        <v>7295</v>
+        <v>6826</v>
       </c>
       <c r="L13" t="n">
-        <v>1702</v>
+        <v>1585</v>
       </c>
       <c r="M13" t="n">
-        <v>175848</v>
+        <v>166633</v>
       </c>
       <c r="N13" t="n">
-        <v>2168</v>
+        <v>2048</v>
       </c>
       <c r="O13" t="n">
-        <v>10424</v>
+        <v>9958</v>
       </c>
       <c r="P13" t="n">
-        <v>2872</v>
+        <v>2694</v>
       </c>
       <c r="Q13" t="n">
-        <v>1296</v>
+        <v>1238</v>
       </c>
       <c r="R13" t="n">
-        <v>8802</v>
+        <v>8173</v>
       </c>
       <c r="S13" t="n">
-        <v>2944</v>
+        <v>2795</v>
       </c>
       <c r="T13" t="n">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="U13" t="n">
-        <v>1805</v>
+        <v>1740</v>
       </c>
       <c r="V13" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="W13" t="n">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="X13" t="n">
-        <v>2630</v>
+        <v>2569</v>
       </c>
       <c r="Y13" t="n">
-        <v>4655</v>
+        <v>4462</v>
       </c>
       <c r="Z13" t="n">
-        <v>5142</v>
+        <v>4812</v>
       </c>
       <c r="AA13" t="n">
-        <v>8908</v>
+        <v>8369</v>
       </c>
       <c r="AB13" t="n">
-        <v>3704</v>
+        <v>3418</v>
       </c>
       <c r="AC13" t="n">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="AD13" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AE13" t="n">
-        <v>12832</v>
+        <v>12172</v>
       </c>
       <c r="AF13" t="n">
-        <v>2398</v>
+        <v>2362</v>
       </c>
       <c r="AG13" t="n">
-        <v>5124</v>
+        <v>4877</v>
       </c>
       <c r="AH13" t="n">
-        <v>9744</v>
+        <v>9118</v>
       </c>
       <c r="AI13" t="n">
-        <v>14937</v>
+        <v>14076</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1720</v>
+        <v>1646</v>
       </c>
       <c r="AK13" t="n">
-        <v>4484</v>
+        <v>4280</v>
       </c>
       <c r="AL13" t="n">
-        <v>10394</v>
+        <v>9981</v>
       </c>
       <c r="AM13" t="n">
-        <v>3302</v>
+        <v>3128</v>
       </c>
       <c r="AN13" t="n">
-        <v>3218</v>
+        <v>3084</v>
       </c>
       <c r="AO13" t="n">
-        <v>641</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6476</v>
+        <v>6279</v>
       </c>
       <c r="C14" t="n">
-        <v>7235</v>
+        <v>6926</v>
       </c>
       <c r="D14" t="n">
-        <v>2047</v>
+        <v>1951</v>
       </c>
       <c r="E14" t="n">
-        <v>4423</v>
+        <v>4196</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>12280</v>
+        <v>11846</v>
       </c>
       <c r="H14" t="n">
-        <v>915</v>
+        <v>884</v>
       </c>
       <c r="I14" t="n">
-        <v>3562</v>
+        <v>3464</v>
       </c>
       <c r="J14" t="n">
-        <v>3648</v>
+        <v>3523</v>
       </c>
       <c r="K14" t="n">
-        <v>7316</v>
+        <v>6984</v>
       </c>
       <c r="L14" t="n">
-        <v>1711</v>
+        <v>1610</v>
       </c>
       <c r="M14" t="n">
-        <v>176560</v>
+        <v>169528</v>
       </c>
       <c r="N14" t="n">
-        <v>2185</v>
+        <v>2055</v>
       </c>
       <c r="O14" t="n">
-        <v>10452</v>
+        <v>10094</v>
       </c>
       <c r="P14" t="n">
-        <v>2876</v>
+        <v>2763</v>
       </c>
       <c r="Q14" t="n">
-        <v>1303</v>
+        <v>1267</v>
       </c>
       <c r="R14" t="n">
-        <v>8859</v>
+        <v>8279</v>
       </c>
       <c r="S14" t="n">
-        <v>2963</v>
+        <v>2851</v>
       </c>
       <c r="T14" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="U14" t="n">
-        <v>1810</v>
+        <v>1763</v>
       </c>
       <c r="V14" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W14" t="n">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="X14" t="n">
-        <v>2633</v>
+        <v>2576</v>
       </c>
       <c r="Y14" t="n">
-        <v>4655</v>
+        <v>4589</v>
       </c>
       <c r="Z14" t="n">
-        <v>5168</v>
+        <v>4909</v>
       </c>
       <c r="AA14" t="n">
-        <v>8944</v>
+        <v>8527</v>
       </c>
       <c r="AB14" t="n">
-        <v>3727</v>
+        <v>3482</v>
       </c>
       <c r="AC14" t="n">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="AD14" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AE14" t="n">
-        <v>12952</v>
+        <v>12355</v>
       </c>
       <c r="AF14" t="n">
-        <v>2399</v>
+        <v>2384</v>
       </c>
       <c r="AG14" t="n">
-        <v>5133</v>
+        <v>4964</v>
       </c>
       <c r="AH14" t="n">
-        <v>9773</v>
+        <v>9315</v>
       </c>
       <c r="AI14" t="n">
-        <v>14994</v>
+        <v>14401</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1723</v>
+        <v>1670</v>
       </c>
       <c r="AK14" t="n">
-        <v>4507</v>
+        <v>4350</v>
       </c>
       <c r="AL14" t="n">
-        <v>10430</v>
+        <v>10098</v>
       </c>
       <c r="AM14" t="n">
-        <v>3295</v>
+        <v>3175</v>
       </c>
       <c r="AN14" t="n">
-        <v>3227</v>
+        <v>3119</v>
       </c>
       <c r="AO14" t="n">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6548</v>
+        <v>6297</v>
       </c>
       <c r="C15" t="n">
-        <v>7375</v>
+        <v>6965</v>
       </c>
       <c r="D15" t="n">
-        <v>2072</v>
+        <v>1967</v>
       </c>
       <c r="E15" t="n">
-        <v>4476</v>
+        <v>4233</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>12416</v>
+        <v>11929</v>
       </c>
       <c r="H15" t="n">
-        <v>921</v>
+        <v>893</v>
       </c>
       <c r="I15" t="n">
-        <v>3586</v>
+        <v>3484</v>
       </c>
       <c r="J15" t="n">
-        <v>3730</v>
+        <v>3546</v>
       </c>
       <c r="K15" t="n">
-        <v>7480</v>
+        <v>7025</v>
       </c>
       <c r="L15" t="n">
-        <v>1740</v>
+        <v>1627</v>
       </c>
       <c r="M15" t="n">
-        <v>178876</v>
+        <v>170707</v>
       </c>
       <c r="N15" t="n">
-        <v>2246</v>
+        <v>2070</v>
       </c>
       <c r="O15" t="n">
-        <v>10616</v>
+        <v>10166</v>
       </c>
       <c r="P15" t="n">
-        <v>2895</v>
+        <v>2781</v>
       </c>
       <c r="Q15" t="n">
-        <v>1313</v>
+        <v>1271</v>
       </c>
       <c r="R15" t="n">
-        <v>8980</v>
+        <v>8380</v>
       </c>
       <c r="S15" t="n">
-        <v>3002</v>
+        <v>2869</v>
       </c>
       <c r="T15" t="n">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="U15" t="n">
-        <v>1840</v>
+        <v>1768</v>
       </c>
       <c r="V15" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="W15" t="n">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X15" t="n">
-        <v>2630</v>
+        <v>2595</v>
       </c>
       <c r="Y15" t="n">
-        <v>4694</v>
+        <v>4613</v>
       </c>
       <c r="Z15" t="n">
-        <v>5230</v>
+        <v>4951</v>
       </c>
       <c r="AA15" t="n">
-        <v>9167</v>
+        <v>8593</v>
       </c>
       <c r="AB15" t="n">
-        <v>3850</v>
+        <v>3516</v>
       </c>
       <c r="AC15" t="n">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="AD15" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="AE15" t="n">
-        <v>13107</v>
+        <v>12415</v>
       </c>
       <c r="AF15" t="n">
-        <v>2405</v>
+        <v>2390</v>
       </c>
       <c r="AG15" t="n">
-        <v>5192</v>
+        <v>5008</v>
       </c>
       <c r="AH15" t="n">
-        <v>9942</v>
+        <v>9390</v>
       </c>
       <c r="AI15" t="n">
-        <v>15125</v>
+        <v>14516</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1740</v>
+        <v>1686</v>
       </c>
       <c r="AK15" t="n">
-        <v>4532</v>
+        <v>4370</v>
       </c>
       <c r="AL15" t="n">
-        <v>10485</v>
+        <v>10157</v>
       </c>
       <c r="AM15" t="n">
-        <v>3310</v>
+        <v>3206</v>
       </c>
       <c r="AN15" t="n">
-        <v>3268</v>
+        <v>3136</v>
       </c>
       <c r="AO15" t="n">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6201</v>
+        <v>6312</v>
       </c>
       <c r="C16" t="n">
-        <v>6813</v>
+        <v>6980</v>
       </c>
       <c r="D16" t="n">
-        <v>1889</v>
+        <v>1974</v>
       </c>
       <c r="E16" t="n">
-        <v>4118</v>
+        <v>4251</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>11627</v>
+        <v>11969</v>
       </c>
       <c r="H16" t="n">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="I16" t="n">
-        <v>3403</v>
+        <v>3496</v>
       </c>
       <c r="J16" t="n">
-        <v>3469</v>
+        <v>3551</v>
       </c>
       <c r="K16" t="n">
-        <v>6826</v>
+        <v>7062</v>
       </c>
       <c r="L16" t="n">
-        <v>1585</v>
+        <v>1644</v>
       </c>
       <c r="M16" t="n">
-        <v>166633</v>
+        <v>171460</v>
       </c>
       <c r="N16" t="n">
-        <v>2048</v>
+        <v>2084</v>
       </c>
       <c r="O16" t="n">
-        <v>9958</v>
+        <v>10215</v>
       </c>
       <c r="P16" t="n">
-        <v>2694</v>
+        <v>2799</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238</v>
+        <v>1282</v>
       </c>
       <c r="R16" t="n">
-        <v>8173</v>
+        <v>8447</v>
       </c>
       <c r="S16" t="n">
-        <v>2795</v>
+        <v>2880</v>
       </c>
       <c r="T16" t="n">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="U16" t="n">
-        <v>1740</v>
+        <v>1770</v>
       </c>
       <c r="V16" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="W16" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="X16" t="n">
-        <v>2569</v>
+        <v>2597</v>
       </c>
       <c r="Y16" t="n">
-        <v>4462</v>
+        <v>4623</v>
       </c>
       <c r="Z16" t="n">
-        <v>4812</v>
+        <v>4957</v>
       </c>
       <c r="AA16" t="n">
-        <v>8369</v>
+        <v>8635</v>
       </c>
       <c r="AB16" t="n">
-        <v>3418</v>
+        <v>3556</v>
       </c>
       <c r="AC16" t="n">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="AD16" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE16" t="n">
-        <v>12172</v>
+        <v>12473</v>
       </c>
       <c r="AF16" t="n">
-        <v>2362</v>
+        <v>2389</v>
       </c>
       <c r="AG16" t="n">
-        <v>4877</v>
+        <v>5035</v>
       </c>
       <c r="AH16" t="n">
-        <v>9118</v>
+        <v>9443</v>
       </c>
       <c r="AI16" t="n">
-        <v>14076</v>
+        <v>14596</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1646</v>
+        <v>1693</v>
       </c>
       <c r="AK16" t="n">
-        <v>4280</v>
+        <v>4388</v>
       </c>
       <c r="AL16" t="n">
-        <v>9981</v>
+        <v>10188</v>
       </c>
       <c r="AM16" t="n">
-        <v>3128</v>
+        <v>3225</v>
       </c>
       <c r="AN16" t="n">
-        <v>3084</v>
+        <v>3152</v>
       </c>
       <c r="AO16" t="n">
-        <v>607</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6279</v>
+        <v>6354</v>
       </c>
       <c r="C17" t="n">
-        <v>6926</v>
+        <v>7089</v>
       </c>
       <c r="D17" t="n">
-        <v>1951</v>
+        <v>1995</v>
       </c>
       <c r="E17" t="n">
-        <v>4196</v>
+        <v>4282</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>11846</v>
+        <v>12055</v>
       </c>
       <c r="H17" t="n">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="I17" t="n">
-        <v>3464</v>
+        <v>3522</v>
       </c>
       <c r="J17" t="n">
-        <v>3523</v>
+        <v>3581</v>
       </c>
       <c r="K17" t="n">
-        <v>6984</v>
+        <v>7115</v>
       </c>
       <c r="L17" t="n">
-        <v>1610</v>
+        <v>1654</v>
       </c>
       <c r="M17" t="n">
-        <v>169528</v>
+        <v>172778</v>
       </c>
       <c r="N17" t="n">
-        <v>2055</v>
+        <v>2104</v>
       </c>
       <c r="O17" t="n">
-        <v>10094</v>
+        <v>10294</v>
       </c>
       <c r="P17" t="n">
-        <v>2763</v>
+        <v>2829</v>
       </c>
       <c r="Q17" t="n">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="R17" t="n">
-        <v>8279</v>
+        <v>8512</v>
       </c>
       <c r="S17" t="n">
-        <v>2851</v>
+        <v>2909</v>
       </c>
       <c r="T17" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="U17" t="n">
-        <v>1763</v>
+        <v>1782</v>
       </c>
       <c r="V17" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="W17" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="X17" t="n">
-        <v>2576</v>
+        <v>2609</v>
       </c>
       <c r="Y17" t="n">
-        <v>4589</v>
+        <v>4637</v>
       </c>
       <c r="Z17" t="n">
-        <v>4909</v>
+        <v>5006</v>
       </c>
       <c r="AA17" t="n">
-        <v>8527</v>
+        <v>8701</v>
       </c>
       <c r="AB17" t="n">
-        <v>3482</v>
+        <v>3568</v>
       </c>
       <c r="AC17" t="n">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="AD17" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AE17" t="n">
-        <v>12355</v>
+        <v>12548</v>
       </c>
       <c r="AF17" t="n">
-        <v>2384</v>
+        <v>2397</v>
       </c>
       <c r="AG17" t="n">
-        <v>4964</v>
+        <v>5061</v>
       </c>
       <c r="AH17" t="n">
-        <v>9315</v>
+        <v>9547</v>
       </c>
       <c r="AI17" t="n">
-        <v>14401</v>
+        <v>14711</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1670</v>
+        <v>1715</v>
       </c>
       <c r="AK17" t="n">
-        <v>4350</v>
+        <v>4429</v>
       </c>
       <c r="AL17" t="n">
-        <v>10098</v>
+        <v>10263</v>
       </c>
       <c r="AM17" t="n">
-        <v>3175</v>
+        <v>3246</v>
       </c>
       <c r="AN17" t="n">
-        <v>3119</v>
+        <v>3176</v>
       </c>
       <c r="AO17" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6297</v>
+        <v>6382</v>
       </c>
       <c r="C18" t="n">
-        <v>6965</v>
+        <v>7120</v>
       </c>
       <c r="D18" t="n">
-        <v>1967</v>
+        <v>2005</v>
       </c>
       <c r="E18" t="n">
-        <v>4233</v>
+        <v>4311</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>11929</v>
+        <v>12086</v>
       </c>
       <c r="H18" t="n">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="I18" t="n">
-        <v>3484</v>
+        <v>3532</v>
       </c>
       <c r="J18" t="n">
-        <v>3546</v>
+        <v>3592</v>
       </c>
       <c r="K18" t="n">
-        <v>7025</v>
+        <v>7170</v>
       </c>
       <c r="L18" t="n">
-        <v>1627</v>
+        <v>1659</v>
       </c>
       <c r="M18" t="n">
-        <v>170707</v>
+        <v>173517</v>
       </c>
       <c r="N18" t="n">
-        <v>2070</v>
+        <v>2126</v>
       </c>
       <c r="O18" t="n">
-        <v>10166</v>
+        <v>10323</v>
       </c>
       <c r="P18" t="n">
-        <v>2781</v>
+        <v>2837</v>
       </c>
       <c r="Q18" t="n">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="R18" t="n">
-        <v>8380</v>
+        <v>8588</v>
       </c>
       <c r="S18" t="n">
-        <v>2869</v>
+        <v>2918</v>
       </c>
       <c r="T18" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U18" t="n">
-        <v>1768</v>
+        <v>1785</v>
       </c>
       <c r="V18" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W18" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="X18" t="n">
-        <v>2595</v>
+        <v>2621</v>
       </c>
       <c r="Y18" t="n">
-        <v>4613</v>
+        <v>4641</v>
       </c>
       <c r="Z18" t="n">
-        <v>4951</v>
+        <v>5040</v>
       </c>
       <c r="AA18" t="n">
-        <v>8593</v>
+        <v>8738</v>
       </c>
       <c r="AB18" t="n">
-        <v>3516</v>
+        <v>3607</v>
       </c>
       <c r="AC18" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="AD18" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AE18" t="n">
-        <v>12415</v>
+        <v>12617</v>
       </c>
       <c r="AF18" t="n">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="AG18" t="n">
-        <v>5008</v>
+        <v>5064</v>
       </c>
       <c r="AH18" t="n">
-        <v>9390</v>
+        <v>9590</v>
       </c>
       <c r="AI18" t="n">
-        <v>14516</v>
+        <v>14748</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1686</v>
+        <v>1715</v>
       </c>
       <c r="AK18" t="n">
-        <v>4370</v>
+        <v>4443</v>
       </c>
       <c r="AL18" t="n">
-        <v>10157</v>
+        <v>10313</v>
       </c>
       <c r="AM18" t="n">
-        <v>3206</v>
+        <v>3268</v>
       </c>
       <c r="AN18" t="n">
-        <v>3136</v>
+        <v>3185</v>
       </c>
       <c r="AO18" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6312</v>
+        <v>6397</v>
       </c>
       <c r="C19" t="n">
-        <v>6980</v>
+        <v>7142</v>
       </c>
       <c r="D19" t="n">
-        <v>1974</v>
+        <v>2008</v>
       </c>
       <c r="E19" t="n">
-        <v>4251</v>
+        <v>4331</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>11969</v>
+        <v>12123</v>
       </c>
       <c r="H19" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="I19" t="n">
-        <v>3496</v>
+        <v>3536</v>
       </c>
       <c r="J19" t="n">
-        <v>3551</v>
+        <v>3605</v>
       </c>
       <c r="K19" t="n">
-        <v>7062</v>
+        <v>7195</v>
       </c>
       <c r="L19" t="n">
-        <v>1644</v>
+        <v>1664</v>
       </c>
       <c r="M19" t="n">
-        <v>171460</v>
+        <v>174020</v>
       </c>
       <c r="N19" t="n">
-        <v>2084</v>
+        <v>2136</v>
       </c>
       <c r="O19" t="n">
-        <v>10215</v>
+        <v>10350</v>
       </c>
       <c r="P19" t="n">
-        <v>2799</v>
+        <v>2847</v>
       </c>
       <c r="Q19" t="n">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="R19" t="n">
-        <v>8447</v>
+        <v>8644</v>
       </c>
       <c r="S19" t="n">
-        <v>2880</v>
+        <v>2925</v>
       </c>
       <c r="T19" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="U19" t="n">
-        <v>1770</v>
+        <v>1787</v>
       </c>
       <c r="V19" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="W19" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="X19" t="n">
-        <v>2597</v>
+        <v>2620</v>
       </c>
       <c r="Y19" t="n">
-        <v>4623</v>
+        <v>4652</v>
       </c>
       <c r="Z19" t="n">
-        <v>4957</v>
+        <v>5064</v>
       </c>
       <c r="AA19" t="n">
-        <v>8635</v>
+        <v>8759</v>
       </c>
       <c r="AB19" t="n">
-        <v>3556</v>
+        <v>3623</v>
       </c>
       <c r="AC19" t="n">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="AD19" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AE19" t="n">
-        <v>12473</v>
+        <v>12654</v>
       </c>
       <c r="AF19" t="n">
-        <v>2389</v>
+        <v>2398</v>
       </c>
       <c r="AG19" t="n">
-        <v>5035</v>
+        <v>5074</v>
       </c>
       <c r="AH19" t="n">
-        <v>9443</v>
+        <v>9620</v>
       </c>
       <c r="AI19" t="n">
-        <v>14596</v>
+        <v>14785</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1693</v>
+        <v>1715</v>
       </c>
       <c r="AK19" t="n">
-        <v>4388</v>
+        <v>4452</v>
       </c>
       <c r="AL19" t="n">
-        <v>10188</v>
+        <v>10336</v>
       </c>
       <c r="AM19" t="n">
-        <v>3225</v>
+        <v>3275</v>
       </c>
       <c r="AN19" t="n">
-        <v>3152</v>
+        <v>3197</v>
       </c>
       <c r="AO19" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6354</v>
+        <v>6417</v>
       </c>
       <c r="C20" t="n">
-        <v>7089</v>
+        <v>7188</v>
       </c>
       <c r="D20" t="n">
-        <v>1995</v>
+        <v>2023</v>
       </c>
       <c r="E20" t="n">
-        <v>4282</v>
+        <v>4355</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>12055</v>
+        <v>12164</v>
       </c>
       <c r="H20" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="I20" t="n">
-        <v>3522</v>
+        <v>3535</v>
       </c>
       <c r="J20" t="n">
-        <v>3581</v>
+        <v>3610</v>
       </c>
       <c r="K20" t="n">
-        <v>7115</v>
+        <v>7252</v>
       </c>
       <c r="L20" t="n">
-        <v>1654</v>
+        <v>1685</v>
       </c>
       <c r="M20" t="n">
-        <v>172778</v>
+        <v>174920</v>
       </c>
       <c r="N20" t="n">
-        <v>2104</v>
+        <v>2158</v>
       </c>
       <c r="O20" t="n">
-        <v>10294</v>
+        <v>10381</v>
       </c>
       <c r="P20" t="n">
-        <v>2829</v>
+        <v>2859</v>
       </c>
       <c r="Q20" t="n">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="R20" t="n">
-        <v>8512</v>
+        <v>8726</v>
       </c>
       <c r="S20" t="n">
-        <v>2909</v>
+        <v>2923</v>
       </c>
       <c r="T20" t="n">
         <v>384</v>
       </c>
       <c r="U20" t="n">
-        <v>1782</v>
+        <v>1796</v>
       </c>
       <c r="V20" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W20" t="n">
         <v>328</v>
       </c>
       <c r="X20" t="n">
-        <v>2609</v>
+        <v>2623</v>
       </c>
       <c r="Y20" t="n">
-        <v>4637</v>
+        <v>4657</v>
       </c>
       <c r="Z20" t="n">
-        <v>5006</v>
+        <v>5120</v>
       </c>
       <c r="AA20" t="n">
-        <v>8701</v>
+        <v>8844</v>
       </c>
       <c r="AB20" t="n">
-        <v>3568</v>
+        <v>3671</v>
       </c>
       <c r="AC20" t="n">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="AD20" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AE20" t="n">
-        <v>12548</v>
+        <v>12731</v>
       </c>
       <c r="AF20" t="n">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AG20" t="n">
-        <v>5061</v>
+        <v>5103</v>
       </c>
       <c r="AH20" t="n">
-        <v>9547</v>
+        <v>9680</v>
       </c>
       <c r="AI20" t="n">
-        <v>14711</v>
+        <v>14864</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="AK20" t="n">
-        <v>4429</v>
+        <v>4467</v>
       </c>
       <c r="AL20" t="n">
-        <v>10263</v>
+        <v>10361</v>
       </c>
       <c r="AM20" t="n">
-        <v>3246</v>
+        <v>3291</v>
       </c>
       <c r="AN20" t="n">
-        <v>3176</v>
+        <v>3205</v>
       </c>
       <c r="AO20" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6382</v>
+        <v>6450</v>
       </c>
       <c r="C21" t="n">
-        <v>7120</v>
+        <v>7218</v>
       </c>
       <c r="D21" t="n">
-        <v>2005</v>
+        <v>2031</v>
       </c>
       <c r="E21" t="n">
-        <v>4311</v>
+        <v>4402</v>
       </c>
       <c r="F21" t="n">
         <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>12086</v>
+        <v>12221</v>
       </c>
       <c r="H21" t="n">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="I21" t="n">
-        <v>3532</v>
+        <v>3552</v>
       </c>
       <c r="J21" t="n">
-        <v>3592</v>
+        <v>3629</v>
       </c>
       <c r="K21" t="n">
-        <v>7170</v>
+        <v>7295</v>
       </c>
       <c r="L21" t="n">
-        <v>1659</v>
+        <v>1702</v>
       </c>
       <c r="M21" t="n">
-        <v>173517</v>
+        <v>175848</v>
       </c>
       <c r="N21" t="n">
-        <v>2126</v>
+        <v>2168</v>
       </c>
       <c r="O21" t="n">
-        <v>10323</v>
+        <v>10424</v>
       </c>
       <c r="P21" t="n">
-        <v>2837</v>
+        <v>2872</v>
       </c>
       <c r="Q21" t="n">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="R21" t="n">
-        <v>8588</v>
+        <v>8802</v>
       </c>
       <c r="S21" t="n">
-        <v>2918</v>
+        <v>2944</v>
       </c>
       <c r="T21" t="n">
         <v>384</v>
       </c>
       <c r="U21" t="n">
-        <v>1785</v>
+        <v>1805</v>
       </c>
       <c r="V21" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="W21" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X21" t="n">
-        <v>2621</v>
+        <v>2630</v>
       </c>
       <c r="Y21" t="n">
-        <v>4641</v>
+        <v>4655</v>
       </c>
       <c r="Z21" t="n">
-        <v>5040</v>
+        <v>5142</v>
       </c>
       <c r="AA21" t="n">
-        <v>8738</v>
+        <v>8908</v>
       </c>
       <c r="AB21" t="n">
-        <v>3607</v>
+        <v>3704</v>
       </c>
       <c r="AC21" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="AD21" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AE21" t="n">
-        <v>12617</v>
+        <v>12832</v>
       </c>
       <c r="AF21" t="n">
-        <v>2393</v>
+        <v>2398</v>
       </c>
       <c r="AG21" t="n">
-        <v>5064</v>
+        <v>5124</v>
       </c>
       <c r="AH21" t="n">
-        <v>9590</v>
+        <v>9744</v>
       </c>
       <c r="AI21" t="n">
-        <v>14748</v>
+        <v>14937</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="AK21" t="n">
-        <v>4443</v>
+        <v>4484</v>
       </c>
       <c r="AL21" t="n">
-        <v>10313</v>
+        <v>10394</v>
       </c>
       <c r="AM21" t="n">
-        <v>3268</v>
+        <v>3302</v>
       </c>
       <c r="AN21" t="n">
-        <v>3185</v>
+        <v>3218</v>
       </c>
       <c r="AO21" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6397</v>
+        <v>6476</v>
       </c>
       <c r="C22" t="n">
-        <v>7142</v>
+        <v>7235</v>
       </c>
       <c r="D22" t="n">
-        <v>2008</v>
+        <v>2047</v>
       </c>
       <c r="E22" t="n">
-        <v>4331</v>
+        <v>4423</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>12123</v>
+        <v>12280</v>
       </c>
       <c r="H22" t="n">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="I22" t="n">
-        <v>3536</v>
+        <v>3562</v>
       </c>
       <c r="J22" t="n">
-        <v>3605</v>
+        <v>3648</v>
       </c>
       <c r="K22" t="n">
-        <v>7195</v>
+        <v>7316</v>
       </c>
       <c r="L22" t="n">
-        <v>1664</v>
+        <v>1711</v>
       </c>
       <c r="M22" t="n">
-        <v>174020</v>
+        <v>176560</v>
       </c>
       <c r="N22" t="n">
-        <v>2136</v>
+        <v>2185</v>
       </c>
       <c r="O22" t="n">
-        <v>10350</v>
+        <v>10452</v>
       </c>
       <c r="P22" t="n">
-        <v>2847</v>
+        <v>2876</v>
       </c>
       <c r="Q22" t="n">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="R22" t="n">
-        <v>8644</v>
+        <v>8859</v>
       </c>
       <c r="S22" t="n">
-        <v>2925</v>
+        <v>2963</v>
       </c>
       <c r="T22" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="U22" t="n">
-        <v>1787</v>
+        <v>1810</v>
       </c>
       <c r="V22" t="n">
         <v>284</v>
       </c>
       <c r="W22" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="X22" t="n">
-        <v>2620</v>
+        <v>2633</v>
       </c>
       <c r="Y22" t="n">
-        <v>4652</v>
+        <v>4655</v>
       </c>
       <c r="Z22" t="n">
-        <v>5064</v>
+        <v>5168</v>
       </c>
       <c r="AA22" t="n">
-        <v>8759</v>
+        <v>8944</v>
       </c>
       <c r="AB22" t="n">
-        <v>3623</v>
+        <v>3727</v>
       </c>
       <c r="AC22" t="n">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="AD22" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AE22" t="n">
-        <v>12654</v>
+        <v>12952</v>
       </c>
       <c r="AF22" t="n">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="AG22" t="n">
-        <v>5074</v>
+        <v>5133</v>
       </c>
       <c r="AH22" t="n">
-        <v>9620</v>
+        <v>9773</v>
       </c>
       <c r="AI22" t="n">
-        <v>14785</v>
+        <v>14994</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="AK22" t="n">
-        <v>4452</v>
+        <v>4507</v>
       </c>
       <c r="AL22" t="n">
-        <v>10336</v>
+        <v>10430</v>
       </c>
       <c r="AM22" t="n">
-        <v>3275</v>
+        <v>3295</v>
       </c>
       <c r="AN22" t="n">
-        <v>3197</v>
+        <v>3227</v>
       </c>
       <c r="AO22" t="n">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6417</v>
+        <v>6548</v>
       </c>
       <c r="C23" t="n">
-        <v>7188</v>
+        <v>7375</v>
       </c>
       <c r="D23" t="n">
-        <v>2023</v>
+        <v>2072</v>
       </c>
       <c r="E23" t="n">
-        <v>4355</v>
+        <v>4476</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>12164</v>
+        <v>12416</v>
       </c>
       <c r="H23" t="n">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="I23" t="n">
-        <v>3535</v>
+        <v>3586</v>
       </c>
       <c r="J23" t="n">
-        <v>3610</v>
+        <v>3730</v>
       </c>
       <c r="K23" t="n">
-        <v>7252</v>
+        <v>7480</v>
       </c>
       <c r="L23" t="n">
-        <v>1685</v>
+        <v>1740</v>
       </c>
       <c r="M23" t="n">
-        <v>174920</v>
+        <v>178876</v>
       </c>
       <c r="N23" t="n">
-        <v>2158</v>
+        <v>2246</v>
       </c>
       <c r="O23" t="n">
-        <v>10381</v>
+        <v>10616</v>
       </c>
       <c r="P23" t="n">
-        <v>2859</v>
+        <v>2895</v>
       </c>
       <c r="Q23" t="n">
-        <v>1291</v>
+        <v>1313</v>
       </c>
       <c r="R23" t="n">
-        <v>8726</v>
+        <v>8980</v>
       </c>
       <c r="S23" t="n">
-        <v>2923</v>
+        <v>3002</v>
       </c>
       <c r="T23" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="U23" t="n">
-        <v>1796</v>
+        <v>1840</v>
       </c>
       <c r="V23" t="n">
         <v>286</v>
@@ -3375,58 +3375,58 @@
         <v>328</v>
       </c>
       <c r="X23" t="n">
-        <v>2623</v>
+        <v>2630</v>
       </c>
       <c r="Y23" t="n">
-        <v>4657</v>
+        <v>4694</v>
       </c>
       <c r="Z23" t="n">
-        <v>5120</v>
+        <v>5230</v>
       </c>
       <c r="AA23" t="n">
-        <v>8844</v>
+        <v>9167</v>
       </c>
       <c r="AB23" t="n">
-        <v>3671</v>
+        <v>3850</v>
       </c>
       <c r="AC23" t="n">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="AD23" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AE23" t="n">
-        <v>12731</v>
+        <v>13107</v>
       </c>
       <c r="AF23" t="n">
-        <v>2396</v>
+        <v>2405</v>
       </c>
       <c r="AG23" t="n">
-        <v>5103</v>
+        <v>5192</v>
       </c>
       <c r="AH23" t="n">
-        <v>9680</v>
+        <v>9942</v>
       </c>
       <c r="AI23" t="n">
-        <v>14864</v>
+        <v>15125</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1714</v>
+        <v>1740</v>
       </c>
       <c r="AK23" t="n">
-        <v>4467</v>
+        <v>4532</v>
       </c>
       <c r="AL23" t="n">
-        <v>10361</v>
+        <v>10485</v>
       </c>
       <c r="AM23" t="n">
-        <v>3291</v>
+        <v>3310</v>
       </c>
       <c r="AN23" t="n">
-        <v>3205</v>
+        <v>3268</v>
       </c>
       <c r="AO23" t="n">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
